--- a/output/5Y_P29_KFSDIV.xlsx
+++ b/output/5Y_P29_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3991</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.5985</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.6955</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3398</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.8469</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.129</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.716</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.4613</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.6545</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2345</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.1636</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.8145</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2352</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.8241</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2543</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.5675</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.967000000000001</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0064</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0129</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.4583</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.3341</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.884600000000001</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967499999999999</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4908</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -5197,10 +5200,10 @@
         <v>178240.8627</v>
       </c>
       <c r="K17" s="1">
-        <v>133176.7072</v>
+        <v>133184.8662</v>
       </c>
       <c r="L17" s="1">
-        <v>13.5844</v>
+        <v>13.5852</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -5250,10 +5253,10 @@
         <v>180713.8722</v>
       </c>
       <c r="K18" s="1">
-        <v>142895.9354</v>
+        <v>142904.0944</v>
       </c>
       <c r="L18" s="1">
-        <v>13.6939</v>
+        <v>13.6947</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -5303,10 +5306,10 @@
         <v>209801.1259</v>
       </c>
       <c r="K19" s="1">
-        <v>160454.2165</v>
+        <v>160462.3755</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7947</v>
+        <v>13.7954</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -5356,10 +5359,10 @@
         <v>228050.7204</v>
       </c>
       <c r="K20" s="1">
-        <v>160689.2923</v>
+        <v>160697.4513</v>
       </c>
       <c r="L20" s="1">
-        <v>13.797</v>
+        <v>13.7977</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -5409,10 +5412,10 @@
         <v>240749.6968</v>
       </c>
       <c r="K21" s="1">
-        <v>162445.7722</v>
+        <v>162453.9312</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8193</v>
+        <v>13.82</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -5462,10 +5465,10 @@
         <v>266941.2183</v>
       </c>
       <c r="K22" s="1">
-        <v>169769.0141</v>
+        <v>169777.1731</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9156</v>
+        <v>13.9163</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -5515,10 +5518,10 @@
         <v>274262.7239</v>
       </c>
       <c r="K23" s="1">
-        <v>171489.7299</v>
+        <v>171497.8889</v>
       </c>
       <c r="L23" s="1">
-        <v>13.942</v>
+        <v>13.9426</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -5568,10 +5571,10 @@
         <v>288912.7478</v>
       </c>
       <c r="K24" s="1">
-        <v>184212.1679</v>
+        <v>184220.3269</v>
       </c>
       <c r="L24" s="1">
-        <v>14.1137</v>
+        <v>14.1143</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -5621,10 +5624,10 @@
         <v>284644.5308</v>
       </c>
       <c r="K25" s="1">
-        <v>200647.2717</v>
+        <v>200655.4307</v>
       </c>
       <c r="L25" s="1">
-        <v>14.2788</v>
+        <v>14.2793</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -5674,10 +5677,10 @@
         <v>282834.1475</v>
       </c>
       <c r="K26" s="1">
-        <v>224946.8633</v>
+        <v>224955.0223</v>
       </c>
       <c r="L26" s="1">
-        <v>14.3937</v>
+        <v>14.3942</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -5727,10 +5730,10 @@
         <v>264896.4311</v>
       </c>
       <c r="K27" s="1">
-        <v>246747.2713</v>
+        <v>246755.4303</v>
       </c>
       <c r="L27" s="1">
-        <v>14.4173</v>
+        <v>14.4178</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -5780,10 +5783,10 @@
         <v>299015.4447</v>
       </c>
       <c r="K28" s="1">
-        <v>284749.8074</v>
+        <v>284757.9664</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2157</v>
+        <v>14.2161</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -5833,10 +5836,10 @@
         <v>320464.8229</v>
       </c>
       <c r="K29" s="1">
-        <v>278154.0848</v>
+        <v>278188.6025</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2243</v>
+        <v>14.226</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -5886,10 +5889,10 @@
         <v>307530.3001</v>
       </c>
       <c r="K30" s="1">
-        <v>276698.8961</v>
+        <v>276739.2243</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2231</v>
+        <v>14.2252</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -5939,10 +5942,10 @@
         <v>305600.0631</v>
       </c>
       <c r="K31" s="1">
-        <v>309765.5169</v>
+        <v>309805.8451</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1145</v>
+        <v>14.1164</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -5992,10 +5995,10 @@
         <v>305219.9964</v>
       </c>
       <c r="K32" s="1">
-        <v>338682.7632</v>
+        <v>338723.0914</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9506</v>
+        <v>13.9522</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -6045,10 +6048,10 @@
         <v>321497.424</v>
       </c>
       <c r="K33" s="1">
-        <v>359028.558</v>
+        <v>359068.8862</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8219</v>
+        <v>13.8235</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -6098,10 +6101,10 @@
         <v>359451.8953</v>
       </c>
       <c r="K34" s="1">
-        <v>362684.4165</v>
+        <v>362724.7447</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8038</v>
+        <v>13.8053</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -6151,10 +6154,10 @@
         <v>382743.7683</v>
       </c>
       <c r="K35" s="1">
-        <v>354031.8735</v>
+        <v>354106.7731</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8263</v>
+        <v>13.8293</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -6204,10 +6207,10 @@
         <v>380898.0769</v>
       </c>
       <c r="K36" s="1">
-        <v>350726.7907</v>
+        <v>350814.9001</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8299</v>
+        <v>13.8334</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -6257,10 +6260,10 @@
         <v>408214.6406</v>
       </c>
       <c r="K37" s="1">
-        <v>372660.1026</v>
+        <v>372748.212</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7776</v>
+        <v>13.7808</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -6310,10 +6313,10 @@
         <v>415300.634</v>
       </c>
       <c r="K38" s="1">
-        <v>372100.9034</v>
+        <v>372191.2482</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7782</v>
+        <v>13.7815</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3991</v>
@@ -6363,10 +6366,10 @@
         <v>429449.1537</v>
       </c>
       <c r="K39" s="1">
-        <v>385066.6747</v>
+        <v>385157.0195</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7606</v>
+        <v>13.7638</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.5985</v>
@@ -6416,10 +6419,10 @@
         <v>455154.8467</v>
       </c>
       <c r="K40" s="1">
-        <v>390889.6373</v>
+        <v>390979.982</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7555</v>
+        <v>13.7587</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.6955</v>
@@ -6469,10 +6472,10 @@
         <v>467919.1825</v>
       </c>
       <c r="K41" s="1">
-        <v>395252.0808</v>
+        <v>395342.4256</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7541</v>
+        <v>13.7572</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3398</v>
@@ -6522,10 +6525,10 @@
         <v>467501.0878</v>
       </c>
       <c r="K42" s="1">
-        <v>402499.2685</v>
+        <v>402589.6133</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7535</v>
+        <v>13.7566</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.8469</v>
@@ -6575,10 +6578,10 @@
         <v>470172.002</v>
       </c>
       <c r="K43" s="1">
-        <v>422970.2055</v>
+        <v>423060.5503</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7343</v>
+        <v>13.7372</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.129</v>
@@ -6628,10 +6631,10 @@
         <v>489292.6261</v>
       </c>
       <c r="K44" s="1">
-        <v>448219.9406</v>
+        <v>448310.2853</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6827</v>
+        <v>13.6854</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.716</v>
@@ -6681,10 +6684,10 @@
         <v>485765.3415</v>
       </c>
       <c r="K45" s="1">
-        <v>449001.6203</v>
+        <v>449091.9651</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6817</v>
+        <v>13.6845</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.4613</v>
@@ -6734,10 +6737,10 @@
         <v>495718.3065</v>
       </c>
       <c r="K46" s="1">
-        <v>472620.1311</v>
+        <v>472710.4759</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6314</v>
+        <v>13.634</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.6545</v>
@@ -6787,10 +6790,10 @@
         <v>512619.1145</v>
       </c>
       <c r="K47" s="1">
-        <v>491509.071</v>
+        <v>491599.4158</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5836</v>
+        <v>13.5861</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2345</v>
@@ -6840,10 +6843,10 @@
         <v>507338.2335</v>
       </c>
       <c r="K48" s="1">
-        <v>494544.9143</v>
+        <v>494635.2591</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5776</v>
+        <v>13.5801</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.1636</v>
@@ -6893,10 +6896,10 @@
         <v>524349.7217</v>
       </c>
       <c r="K49" s="1">
-        <v>519915.0627</v>
+        <v>520005.4074</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5067</v>
+        <v>13.5091</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.8145</v>
@@ -6946,10 +6949,10 @@
         <v>520522.6036</v>
       </c>
       <c r="K50" s="1">
-        <v>532687.556</v>
+        <v>532777.9007</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4718</v>
+        <v>13.4741</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2352</v>
@@ -6999,10 +7002,10 @@
         <v>506398.6937</v>
       </c>
       <c r="K51" s="1">
-        <v>556559.018</v>
+        <v>556649.3628</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3925</v>
+        <v>13.3947</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.8241</v>
@@ -7052,10 +7055,10 @@
         <v>509186.4267</v>
       </c>
       <c r="K52" s="1">
-        <v>590724.1154</v>
+        <v>590814.4602</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2472</v>
+        <v>13.2493</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2543</v>
@@ -7105,10 +7108,10 @@
         <v>539345.4602</v>
       </c>
       <c r="K53" s="1">
-        <v>619134.0167</v>
+        <v>619224.3614000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.114</v>
+        <v>13.1159</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.5675</v>
@@ -7158,10 +7161,10 @@
         <v>517613.4137</v>
       </c>
       <c r="K54" s="1">
-        <v>608820.0506</v>
+        <v>608951.6443</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1503</v>
+        <v>13.1531</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.967000000000001</v>
@@ -7211,10 +7214,10 @@
         <v>509983.7165</v>
       </c>
       <c r="K55" s="1">
-        <v>648165.5108</v>
+        <v>648297.1045</v>
       </c>
       <c r="L55" s="1">
-        <v>12.96</v>
+        <v>12.9626</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0064</v>
@@ -7264,10 +7267,10 @@
         <v>521947.8724</v>
       </c>
       <c r="K56" s="1">
-        <v>670665.7334</v>
+        <v>670797.3271</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8318</v>
+        <v>12.8343</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0129</v>
@@ -7317,10 +7320,10 @@
         <v>532254.0893</v>
       </c>
       <c r="K57" s="1">
-        <v>680665.7334</v>
+        <v>680797.3271</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7793</v>
+        <v>12.7818</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.4583</v>
@@ -7370,10 +7373,10 @@
         <v>580713.7341</v>
       </c>
       <c r="K58" s="1">
-        <v>690665.7334</v>
+        <v>690797.3271</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7288</v>
+        <v>12.7313</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.3341</v>
@@ -7423,10 +7426,10 @@
         <v>583927.2105</v>
       </c>
       <c r="K59" s="1">
-        <v>694347.7925</v>
+        <v>694479.3861999999</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7144</v>
+        <v>12.7168</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.884600000000001</v>
@@ -7476,10 +7479,10 @@
         <v>568631.7354</v>
       </c>
       <c r="K60" s="1">
-        <v>711186.9192</v>
+        <v>711318.5129</v>
       </c>
       <c r="L60" s="1">
-        <v>12.6461</v>
+        <v>12.6485</v>
       </c>
       <c r="M60" s="1">
         <v>0.5</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967499999999999</v>
@@ -7529,10 +7532,10 @@
         <v>608699.1537</v>
       </c>
       <c r="K61" s="1">
-        <v>735046.8044</v>
+        <v>735178.3981</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5335</v>
+        <v>12.5358</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4908</v>
@@ -7582,10 +7585,10 @@
         <v>650129.5843</v>
       </c>
       <c r="K62" s="1">
-        <v>751721.1469000001</v>
+        <v>751852.7406</v>
       </c>
       <c r="L62" s="1">
-        <v>12.463</v>
+        <v>12.4652</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -8509,10 +8512,10 @@
         <v>178922.4539</v>
       </c>
       <c r="K17" s="1">
-        <v>138102.1978</v>
+        <v>138109.0558</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6003</v>
+        <v>13.601</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -8562,10 +8565,10 @@
         <v>181104.9275</v>
       </c>
       <c r="K18" s="1">
-        <v>148589.8914</v>
+        <v>148596.7493</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7131</v>
+        <v>13.7137</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -8615,10 +8618,10 @@
         <v>210948.8057</v>
       </c>
       <c r="K19" s="1">
-        <v>167270.8332</v>
+        <v>167277.6912</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8141</v>
+        <v>13.8147</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -8668,10 +8671,10 @@
         <v>229556.6335</v>
       </c>
       <c r="K20" s="1">
-        <v>167992.1434</v>
+        <v>167999.0014</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8207</v>
+        <v>13.8212</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -8721,10 +8724,10 @@
         <v>242378.5779</v>
       </c>
       <c r="K21" s="1">
-        <v>170330.0583</v>
+        <v>170336.9163</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8489</v>
+        <v>13.8494</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -8774,10 +8777,10 @@
         <v>269339.6521</v>
       </c>
       <c r="K22" s="1">
-        <v>178525.4777</v>
+        <v>178532.3357</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9504</v>
+        <v>13.951</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -8827,10 +8830,10 @@
         <v>276520.6689</v>
       </c>
       <c r="K23" s="1">
-        <v>180892.075</v>
+        <v>180898.933</v>
       </c>
       <c r="L23" s="1">
-        <v>13.9845</v>
+        <v>13.985</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -8880,10 +8883,10 @@
         <v>291391.343</v>
       </c>
       <c r="K24" s="1">
-        <v>194861.6029</v>
+        <v>194868.4609</v>
       </c>
       <c r="L24" s="1">
-        <v>14.1608</v>
+        <v>14.1613</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -8933,10 +8936,10 @@
         <v>286307.9082</v>
       </c>
       <c r="K25" s="1">
-        <v>212808.2807</v>
+        <v>212815.1387</v>
       </c>
       <c r="L25" s="1">
-        <v>14.3279</v>
+        <v>14.3283</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -8986,10 +8989,10 @@
         <v>283790.5316</v>
       </c>
       <c r="K26" s="1">
-        <v>239140.6885</v>
+        <v>239147.5465</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4403</v>
+        <v>14.4407</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -9039,10 +9042,10 @@
         <v>264108.0181</v>
       </c>
       <c r="K27" s="1">
-        <v>262919.471</v>
+        <v>262926.329</v>
       </c>
       <c r="L27" s="1">
-        <v>14.4605</v>
+        <v>14.4608</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -9092,10 +9095,10 @@
         <v>299596.3027</v>
       </c>
       <c r="K28" s="1">
-        <v>301023.841</v>
+        <v>301030.699</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2626</v>
+        <v>14.2629</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -9145,10 +9148,10 @@
         <v>321821.8513</v>
       </c>
       <c r="K29" s="1">
-        <v>297900.6401</v>
+        <v>297919.9794</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2669</v>
+        <v>14.2678</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -9198,10 +9201,10 @@
         <v>307270.0171</v>
       </c>
       <c r="K30" s="1">
-        <v>297113.4668</v>
+        <v>297135.9493</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2664</v>
+        <v>14.2675</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -9251,10 +9254,10 @@
         <v>304443.8454</v>
       </c>
       <c r="K31" s="1">
-        <v>333308.6234</v>
+        <v>333331.1058</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1507</v>
+        <v>14.1516</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -9304,10 +9307,10 @@
         <v>303594.9236</v>
       </c>
       <c r="K32" s="1">
-        <v>356687.4773</v>
+        <v>356709.9598</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0215</v>
+        <v>14.0224</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -9357,10 +9360,10 @@
         <v>319986.6288</v>
       </c>
       <c r="K33" s="1">
-        <v>366687.4773</v>
+        <v>366709.9598</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9567</v>
+        <v>13.9576</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -9410,10 +9413,10 @@
         <v>358601.6716</v>
       </c>
       <c r="K34" s="1">
-        <v>376687.4773</v>
+        <v>376709.9598</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9045</v>
+        <v>13.9054</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -9463,10 +9466,10 @@
         <v>382979.162</v>
       </c>
       <c r="K35" s="1">
-        <v>385395.622</v>
+        <v>385418.1045</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8811</v>
+        <v>13.8819</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -9516,10 +9519,10 @@
         <v>380101.9983</v>
       </c>
       <c r="K36" s="1">
-        <v>382761.8949</v>
+        <v>382794.9039</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8841</v>
+        <v>13.8853</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -9569,10 +9572,10 @@
         <v>408951.9721</v>
       </c>
       <c r="K37" s="1">
-        <v>407586.2572</v>
+        <v>407619.2662</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8263</v>
+        <v>13.8274</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -9622,10 +9625,10 @@
         <v>415766.314</v>
       </c>
       <c r="K38" s="1">
-        <v>407989.4414</v>
+        <v>408022.4504</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8258</v>
+        <v>13.8269</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3991</v>
@@ -9675,10 +9678,10 @@
         <v>430306.9136</v>
       </c>
       <c r="K39" s="1">
-        <v>423201.0239</v>
+        <v>423234.0329</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8052</v>
+        <v>13.8063</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.5985</v>
@@ -9728,10 +9731,10 @@
         <v>457523.8512</v>
       </c>
       <c r="K40" s="1">
-        <v>430656.0955</v>
+        <v>430689.1045</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7985</v>
+        <v>13.7995</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.6955</v>
@@ -9781,10 +9784,10 @@
         <v>470563.3732</v>
       </c>
       <c r="K41" s="1">
-        <v>436555.5567</v>
+        <v>436588.5657</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7961</v>
+        <v>13.7972</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3398</v>
@@ -9834,10 +9837,10 @@
         <v>469057.6249</v>
       </c>
       <c r="K42" s="1">
-        <v>445676.109</v>
+        <v>445709.118</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7946</v>
+        <v>13.7956</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.8469</v>
@@ -9887,10 +9890,10 @@
         <v>470918.6751</v>
       </c>
       <c r="K43" s="1">
-        <v>469448.3499</v>
+        <v>469481.359</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7723</v>
+        <v>13.7733</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.129</v>
@@ -9940,10 +9943,10 @@
         <v>491035.1192</v>
       </c>
       <c r="K44" s="1">
-        <v>498600.8657</v>
+        <v>498633.8747</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7162</v>
+        <v>13.7171</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.716</v>
@@ -9993,10 +9996,10 @@
         <v>485980.4201</v>
       </c>
       <c r="K45" s="1">
-        <v>500706.7635</v>
+        <v>500739.7725</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7138</v>
+        <v>13.7147</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.4613</v>
@@ -10046,10 +10049,10 @@
         <v>495897.643</v>
       </c>
       <c r="K46" s="1">
-        <v>528255.0715</v>
+        <v>528288.0805</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6594</v>
+        <v>13.6603</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.6545</v>
@@ -10099,10 +10102,10 @@
         <v>513609.9216</v>
       </c>
       <c r="K47" s="1">
-        <v>550629.1848</v>
+        <v>550662.1938</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6075</v>
+        <v>13.6083</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2345</v>
@@ -10152,10 +10155,10 @@
         <v>506471.4872</v>
       </c>
       <c r="K48" s="1">
-        <v>555362.6253</v>
+        <v>555395.6343</v>
       </c>
       <c r="L48" s="1">
-        <v>13.599</v>
+        <v>13.5998</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.1636</v>
@@ -10205,10 +10208,10 @@
         <v>524436.477</v>
       </c>
       <c r="K49" s="1">
-        <v>573195.7708000001</v>
+        <v>573228.7798</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5529</v>
+        <v>13.5537</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.8145</v>
@@ -10258,10 +10261,10 @@
         <v>519016.4535</v>
       </c>
       <c r="K50" s="1">
-        <v>594222.1714</v>
+        <v>594255.1805</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4994</v>
+        <v>13.5002</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2352</v>
@@ -10311,10 +10314,10 @@
         <v>503036.6453</v>
       </c>
       <c r="K51" s="1">
-        <v>604222.1714</v>
+        <v>604255.1805</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4681</v>
+        <v>13.4689</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.8241</v>
@@ -10364,10 +10367,10 @@
         <v>506337.916</v>
       </c>
       <c r="K52" s="1">
-        <v>614222.1714</v>
+        <v>614255.1805</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4252</v>
+        <v>13.4259</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2543</v>
@@ -10417,10 +10420,10 @@
         <v>536770.5642</v>
       </c>
       <c r="K53" s="1">
-        <v>636335.2124</v>
+        <v>636368.2214</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3152</v>
+        <v>13.3159</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.5675</v>
@@ -10470,10 +10473,10 @@
         <v>513367.3404</v>
       </c>
       <c r="K54" s="1">
-        <v>646335.2124</v>
+        <v>646368.2214</v>
       </c>
       <c r="L54" s="1">
-        <v>13.278</v>
+        <v>13.2787</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.967000000000001</v>
@@ -10523,10 +10526,10 @@
         <v>506732.0682</v>
       </c>
       <c r="K55" s="1">
-        <v>656335.2124</v>
+        <v>656368.2214</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2269</v>
+        <v>13.2275</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0064</v>
@@ -10576,10 +10579,10 @@
         <v>518680.7998</v>
       </c>
       <c r="K56" s="1">
-        <v>679478.0082</v>
+        <v>679511.0172</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0823</v>
+        <v>13.0829</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0129</v>
@@ -10629,10 +10632,10 @@
         <v>528984.8903</v>
       </c>
       <c r="K57" s="1">
-        <v>689478.0082</v>
+        <v>689511.0172</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0247</v>
+        <v>13.0254</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.4583</v>
@@ -10682,10 +10685,10 @@
         <v>577210.7848</v>
       </c>
       <c r="K58" s="1">
-        <v>699478.0082</v>
+        <v>699511.0172</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9694</v>
+        <v>12.9701</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.3341</v>
@@ -10735,10 +10738,10 @@
         <v>580138.536</v>
       </c>
       <c r="K59" s="1">
-        <v>723770.7481</v>
+        <v>723803.7571</v>
       </c>
       <c r="L59" s="1">
-        <v>12.8668</v>
+        <v>12.8674</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.884600000000001</v>
@@ -10788,10 +10791,10 @@
         <v>564431.1499</v>
       </c>
       <c r="K60" s="1">
-        <v>733770.7481</v>
+        <v>733803.7571</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8244</v>
+        <v>12.825</v>
       </c>
       <c r="M60" s="1">
         <v>0.5</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967499999999999</v>
@@ -10841,10 +10844,10 @@
         <v>604959.8164</v>
       </c>
       <c r="K61" s="1">
-        <v>743770.7481</v>
+        <v>743803.7571</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7738</v>
+        <v>12.7744</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4908</v>
@@ -10894,10 +10897,10 @@
         <v>647091.8696</v>
       </c>
       <c r="K62" s="1">
-        <v>779518.2561999999</v>
+        <v>779551.2652</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6124</v>
+        <v>12.613</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -11821,10 +11824,10 @@
         <v>179604.3311</v>
       </c>
       <c r="K17" s="1">
-        <v>143273.1678</v>
+        <v>143278.5962</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6184</v>
+        <v>13.6189</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -11874,10 +11877,10 @@
         <v>181482.2846</v>
       </c>
       <c r="K18" s="1">
-        <v>154585.077</v>
+        <v>154590.5055</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7343</v>
+        <v>13.7348</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -11927,10 +11930,10 @@
         <v>212120.3222</v>
       </c>
       <c r="K19" s="1">
-        <v>174467.1177</v>
+        <v>174472.5462</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8353</v>
+        <v>13.8357</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -11980,10 +11983,10 @@
         <v>231105.9602</v>
       </c>
       <c r="K20" s="1">
-        <v>175727.599</v>
+        <v>175733.0275</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8461</v>
+        <v>13.8465</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -12033,10 +12036,10 @@
         <v>244057.9488</v>
       </c>
       <c r="K21" s="1">
-        <v>178710.3095</v>
+        <v>178715.738</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8801</v>
+        <v>13.8805</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -12086,10 +12089,10 @@
         <v>271834.9013</v>
       </c>
       <c r="K22" s="1">
-        <v>187864.0389</v>
+        <v>187869.4674</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9869</v>
+        <v>13.9873</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -12139,10 +12142,10 @@
         <v>278866.0586</v>
       </c>
       <c r="K23" s="1">
-        <v>190955.644</v>
+        <v>190961.0725</v>
       </c>
       <c r="L23" s="1">
-        <v>14.0287</v>
+        <v>14.0291</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -12192,10 +12195,10 @@
         <v>293970.4519</v>
       </c>
       <c r="K24" s="1">
-        <v>206297.3341</v>
+        <v>206302.7626</v>
       </c>
       <c r="L24" s="1">
-        <v>14.2094</v>
+        <v>14.2098</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -12245,10 +12248,10 @@
         <v>288012.222</v>
       </c>
       <c r="K25" s="1">
-        <v>225907.8604</v>
+        <v>225913.2889</v>
       </c>
       <c r="L25" s="1">
-        <v>14.3783</v>
+        <v>14.3787</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -12298,10 +12301,10 @@
         <v>284733.5832</v>
       </c>
       <c r="K26" s="1">
-        <v>254473.4432</v>
+        <v>254478.8717</v>
       </c>
       <c r="L26" s="1">
-        <v>14.488</v>
+        <v>14.4883</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -12351,10 +12354,10 @@
         <v>263166.2207</v>
       </c>
       <c r="K27" s="1">
-        <v>280439.0524</v>
+        <v>280444.4809</v>
       </c>
       <c r="L27" s="1">
-        <v>14.5043</v>
+        <v>14.5046</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -12404,10 +12407,10 @@
         <v>299180.9338</v>
       </c>
       <c r="K28" s="1">
-        <v>302636.8914</v>
+        <v>302642.3199</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3851</v>
+        <v>14.3854</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -12457,10 +12460,10 @@
         <v>322179.4297</v>
       </c>
       <c r="K29" s="1">
-        <v>320436.6553</v>
+        <v>320442.0838</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3551</v>
+        <v>14.3553</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -12510,10 +12513,10 @@
         <v>305862.7547</v>
       </c>
       <c r="K30" s="1">
-        <v>320449.1644</v>
+        <v>320454.5929</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3551</v>
+        <v>14.3553</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -12563,10 +12566,10 @@
         <v>303342.603</v>
       </c>
       <c r="K31" s="1">
-        <v>341337.5772</v>
+        <v>341343.0057</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2834</v>
+        <v>14.2836</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -12616,10 +12619,10 @@
         <v>302551.9878</v>
       </c>
       <c r="K32" s="1">
-        <v>359373.8696</v>
+        <v>359379.298</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1758</v>
+        <v>14.176</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -12669,10 +12672,10 @@
         <v>318922.3001</v>
       </c>
       <c r="K33" s="1">
-        <v>369373.8696</v>
+        <v>369379.298</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1059</v>
+        <v>14.1061</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -12722,10 +12725,10 @@
         <v>357443.9591</v>
       </c>
       <c r="K34" s="1">
-        <v>379373.8696</v>
+        <v>379379.298</v>
       </c>
       <c r="L34" s="1">
-        <v>14.049</v>
+        <v>14.0492</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -12775,10 +12778,10 @@
         <v>382163.2679</v>
       </c>
       <c r="K35" s="1">
-        <v>398800.7636</v>
+        <v>398806.1921</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9906</v>
+        <v>13.9908</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -12828,10 +12831,10 @@
         <v>378461.6186</v>
       </c>
       <c r="K36" s="1">
-        <v>408800.7636</v>
+        <v>408806.1921</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9771</v>
+        <v>13.9773</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -12881,10 +12884,10 @@
         <v>408034.4627</v>
       </c>
       <c r="K37" s="1">
-        <v>418800.7636</v>
+        <v>418806.1921</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9518</v>
+        <v>13.952</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -12934,10 +12937,10 @@
         <v>414579.7356</v>
       </c>
       <c r="K38" s="1">
-        <v>436697.6891</v>
+        <v>436703.1176</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9276</v>
+        <v>13.9278</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3991</v>
@@ -12987,10 +12990,10 @@
         <v>429359.2384</v>
       </c>
       <c r="K39" s="1">
-        <v>446697.6891</v>
+        <v>446703.1176</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9123</v>
+        <v>13.9125</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.5985</v>
@@ -13040,10 +13043,10 @@
         <v>457415.9683</v>
       </c>
       <c r="K40" s="1">
-        <v>456697.6891</v>
+        <v>456703.1176</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9013</v>
+        <v>13.9014</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.6955</v>
@@ -13093,10 +13096,10 @@
         <v>470663.2188</v>
       </c>
       <c r="K41" s="1">
-        <v>478256.6076</v>
+        <v>478262.0361</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8886</v>
+        <v>13.8888</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3398</v>
@@ -13146,10 +13149,10 @@
         <v>468140.1119</v>
       </c>
       <c r="K42" s="1">
-        <v>488256.6076</v>
+        <v>488262.0361</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8852</v>
+        <v>13.8853</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.8469</v>
@@ -13199,10 +13202,10 @@
         <v>469929.289</v>
       </c>
       <c r="K43" s="1">
-        <v>498256.6076</v>
+        <v>498262.0361</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8744</v>
+        <v>13.8745</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.129</v>
@@ -13252,10 +13255,10 @@
         <v>490386.9825</v>
       </c>
       <c r="K44" s="1">
-        <v>517750.8524</v>
+        <v>517756.2809</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8338</v>
+        <v>13.834</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.716</v>
@@ -13305,10 +13308,10 @@
         <v>484610.3186</v>
       </c>
       <c r="K45" s="1">
-        <v>527750.8524</v>
+        <v>527756.2809</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8203</v>
+        <v>13.8205</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.4613</v>
@@ -13358,10 +13361,10 @@
         <v>494974.2124</v>
       </c>
       <c r="K46" s="1">
-        <v>537750.8524</v>
+        <v>537756.2809</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7986</v>
+        <v>13.7987</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.6545</v>
@@ -13411,10 +13414,10 @@
         <v>512720.34</v>
       </c>
       <c r="K47" s="1">
-        <v>558061.2228</v>
+        <v>558066.6513</v>
       </c>
       <c r="L47" s="1">
-        <v>13.746</v>
+        <v>13.7462</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2345</v>
@@ -13464,10 +13467,10 @@
         <v>505331.0693</v>
       </c>
       <c r="K48" s="1">
-        <v>568061.2228</v>
+        <v>568066.6513</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7257</v>
+        <v>13.7258</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.1636</v>
@@ -13517,10 +13520,10 @@
         <v>523481.7873</v>
       </c>
       <c r="K49" s="1">
-        <v>578061.2228</v>
+        <v>578066.6513</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6974</v>
+        <v>13.6975</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.8145</v>
@@ -13570,10 +13573,10 @@
         <v>518088.5892</v>
       </c>
       <c r="K50" s="1">
-        <v>599235.6199</v>
+        <v>599241.0484</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6377</v>
+        <v>13.6378</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2352</v>
@@ -13623,10 +13626,10 @@
         <v>502154.2813</v>
       </c>
       <c r="K51" s="1">
-        <v>609235.6199</v>
+        <v>609241.0484</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6037</v>
+        <v>13.6039</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.8241</v>
@@ -13676,10 +13679,10 @@
         <v>505466.5927</v>
       </c>
       <c r="K52" s="1">
-        <v>619235.6199</v>
+        <v>619241.0484</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5581</v>
+        <v>13.5582</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2543</v>
@@ -13729,10 +13732,10 @@
         <v>535864.6939</v>
       </c>
       <c r="K53" s="1">
-        <v>641327.4136</v>
+        <v>641332.8421</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4423</v>
+        <v>13.4424</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.5675</v>
@@ -13782,10 +13785,10 @@
         <v>512516.7491</v>
       </c>
       <c r="K54" s="1">
-        <v>651327.4136</v>
+        <v>651332.8421</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4028</v>
+        <v>13.4029</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.967000000000001</v>
@@ -13835,10 +13838,10 @@
         <v>505908.0357</v>
       </c>
       <c r="K55" s="1">
-        <v>661327.4136</v>
+        <v>661332.8421</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3492</v>
+        <v>13.3493</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0064</v>
@@ -13888,10 +13891,10 @@
         <v>517853.599</v>
       </c>
       <c r="K56" s="1">
-        <v>684448.4334</v>
+        <v>684453.8618</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1991</v>
+        <v>13.1992</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0129</v>
@@ -13941,10 +13944,10 @@
         <v>528157.1511</v>
       </c>
       <c r="K57" s="1">
-        <v>694448.4334</v>
+        <v>694453.8618</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1392</v>
+        <v>13.1393</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.4583</v>
@@ -13994,10 +13997,10 @@
         <v>576323.8615999999</v>
       </c>
       <c r="K58" s="1">
-        <v>704448.4334</v>
+        <v>704453.8618</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0817</v>
+        <v>13.0818</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.3341</v>
@@ -14047,10 +14050,10 @@
         <v>579262.2381</v>
       </c>
       <c r="K59" s="1">
-        <v>728718.8084</v>
+        <v>728724.2369</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9744</v>
+        <v>12.9745</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.884600000000001</v>
@@ -14100,10 +14103,10 @@
         <v>563592.9682</v>
       </c>
       <c r="K60" s="1">
-        <v>738718.8084</v>
+        <v>738724.2369</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9301</v>
+        <v>12.9302</v>
       </c>
       <c r="M60" s="1">
         <v>0.5</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967499999999999</v>
@@ -14153,10 +14156,10 @@
         <v>604076.3643</v>
       </c>
       <c r="K61" s="1">
-        <v>748718.8084</v>
+        <v>748724.2369</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8776</v>
+        <v>12.8777</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4908</v>
@@ -14206,10 +14209,10 @@
         <v>646162.2014</v>
       </c>
       <c r="K62" s="1">
-        <v>784428.0813</v>
+        <v>784433.5098</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7101</v>
+        <v>12.7102</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3991</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.5985</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.6955</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3398</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.8469</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.129</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.716</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.4613</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.6545</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2345</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.1636</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.8145</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2352</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.8241</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2543</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.5675</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.967000000000001</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0064</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0129</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.4583</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.3341</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.884600000000001</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967499999999999</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4908</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,13 +17600,13 @@
         <v>12.505</v>
       </c>
       <c r="D3" s="1">
-        <v>12.463</v>
+        <v>12.4652</v>
       </c>
       <c r="E3" s="1">
-        <v>12.6124</v>
+        <v>12.613</v>
       </c>
       <c r="F3" s="1">
-        <v>12.7101</v>
+        <v>12.7102</v>
       </c>
       <c r="G3" s="1">
         <v>12.763</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>186547.2935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8372000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8647</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8300999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8237</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8203</v>
       </c>
     </row>
   </sheetData>
